--- a/Разметка list-task-component-html.xlsx
+++ b/Разметка list-task-component-html.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="list-task" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="list-docs" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Total</t>
   </si>
@@ -52,6 +51,15 @@
   </si>
   <si>
     <t>Удаление</t>
+  </si>
+  <si>
+    <t>задача</t>
+  </si>
+  <si>
+    <t>Наименование документа</t>
+  </si>
+  <si>
+    <t>дата</t>
   </si>
 </sst>
 </file>
@@ -410,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -548,24 +556,116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <f>SUM(B2:B17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>